--- a/11-CollaborationList/DOE-LBNL.xlsx
+++ b/11-CollaborationList/DOE-LBNL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2050111487689/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC976371-8554-F24A-BEAB-DC213531F277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{DC976371-8554-F24A-BEAB-DC213531F277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B0F43F1-D188-EC4F-82A9-305721C67D90}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{B041FEAE-BE1E-B04B-A3B2-E9C9448B7A33}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Title</t>
   </si>
@@ -73,24 +73,9 @@
     <t>Status</t>
   </si>
   <si>
-    <t>A.</t>
-  </si>
-  <si>
-    <t>amcilvenny@LBL.GOV</t>
-  </si>
-  <si>
     <t>Dr.</t>
   </si>
   <si>
-    <t>Aodhan</t>
-  </si>
-  <si>
-    <t>McIlvenny</t>
-  </si>
-  <si>
-    <t>A. McIlvenny</t>
-  </si>
-  <si>
     <t>DOE-LBNL</t>
   </si>
   <si>
@@ -107,18 +92,6 @@
   </si>
   <si>
     <t>L. Obst-Huebl</t>
-  </si>
-  <si>
-    <t>Antoine</t>
-  </si>
-  <si>
-    <t>amsnijders@LBL.GOV</t>
-  </si>
-  <si>
-    <t>Snijders</t>
-  </si>
-  <si>
-    <t>A. Snijders</t>
   </si>
   <si>
     <t>Lawrence Berkeley National Laboratory, 1 Cyclotron Road, Berkeley, CA 94720, USA</t>
@@ -128,7 +101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -259,14 +232,6 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -569,7 +534,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -612,13 +577,11 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -652,7 +615,6 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -677,8 +639,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{441F41B1-3955-7345-81ED-136E8F9AE8DF}" name="Table1" displayName="Table1" ref="A1:Q4" totalsRowShown="0">
-  <autoFilter ref="A1:Q4" xr:uid="{441F41B1-3955-7345-81ED-136E8F9AE8DF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{441F41B1-3955-7345-81ED-136E8F9AE8DF}" name="Table1" displayName="Table1" ref="A1:Q2" totalsRowShown="0">
+  <autoFilter ref="A1:Q2" xr:uid="{441F41B1-3955-7345-81ED-136E8F9AE8DF}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{76074AB2-37DE-6846-A45C-0535DE01BA25}" name="Title"/>
     <tableColumn id="2" xr3:uid="{B67FEE32-D589-444B-BA62-7224D1002356}" name="Name"/>
@@ -1019,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A38D86E-A0CA-AC4E-9E28-0478CB9EC53A}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1101,89 +1063,34 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
       <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
       <c r="H2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{B2B72DF2-9E57-6D42-9F02-F0D97CEF768E}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>